--- a/biology/Zoologie/Chien_d'assistance/Chien_d'assistance.xlsx
+++ b/biology/Zoologie/Chien_d'assistance/Chien_d'assistance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_d%27assistance</t>
+          <t>Chien_d'assistance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un chien d'assistance est un chien destiné à aider les personnes atteintes d'un handicap. Il apporte aux personnes ayant un handicap essentiellement une aide technique (par exemple ramasser un objet ou ouvrir une porte), mais aussi un soutien moral, voire une aide à l'insertion sociale en favorisant l'interaction avec l'environnement[1]. Il est important de comprendre que le chien d'assistance n'aide pas que les personnes atteintes d'un handicap moteur, mais aussi psychiatrique, mental, psychique ou même sensoriel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chien d'assistance est un chien destiné à aider les personnes atteintes d'un handicap. Il apporte aux personnes ayant un handicap essentiellement une aide technique (par exemple ramasser un objet ou ouvrir une porte), mais aussi un soutien moral, voire une aide à l'insertion sociale en favorisant l'interaction avec l'environnement. Il est important de comprendre que le chien d'assistance n'aide pas que les personnes atteintes d'un handicap moteur, mais aussi psychiatrique, mental, psychique ou même sensoriel.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_d%27assistance</t>
+          <t>Chien_d'assistance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Cette approche puise son élan originel aux États-Unis par le biais d'un mouvement intitulé Assistance Dogs International[2],[3] initié en 1975 sous l'égide d'une association californienne — Canine Companions for Independence (en)[N 1],[3] (CCI) — fondée par Bonnie Bergin (en).
-France
-En France, fin des années 1980, on connaît les chiens guides d'aveugles mais pas les chiens d'assistance aux infirmes[4].
-En 1989, l'association Handi'chiens voit le jour et va les faire découvrir[5],[6]. Les chiens se voient confiés gratuitement[1] à des personnes en situation de handicap mental, physique ou psychique[6],[7] mais sans déficience majeure de l'acuité visuelle[4],[8].
-En France, les chiens écouteurs font leurs débuts en 2010, des bergers australiens éduqués spécialement pour aider les personnes sourdes ou malentendantes.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette approche puise son élan originel aux États-Unis par le biais d'un mouvement intitulé Assistance Dogs International, initié en 1975 sous l'égide d'une association californienne — Canine Companions for Independence (en)[N 1], (CCI) — fondée par Bonnie Bergin (en).
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_d%27assistance</t>
+          <t>Chien_d'assistance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Québec (Canada)</t>
+          <t>Philosophie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depuis 1981, la Fondation Mira forme des chiens guides d'aveugle et des chiens d'assistance en français. L'organisme est basé à Sainte-Madeleine (Québec).
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, fin des années 1980, on connaît les chiens guides d'aveugles mais pas les chiens d'assistance aux infirmes.
+En 1989, l'association Handi'chiens voit le jour et va les faire découvrir,. Les chiens se voient confiés gratuitement à des personnes en situation de handicap mental, physique ou psychique, mais sans déficience majeure de l'acuité visuelle,.
+En France, les chiens écouteurs font leurs débuts en 2010, des bergers australiens éduqués spécialement pour aider les personnes sourdes ou malentendantes.
 </t>
         </is>
       </c>
@@ -560,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_d%27assistance</t>
+          <t>Chien_d'assistance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,19 +596,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Québec (Canada)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1981, la Fondation Mira forme des chiens guides d'aveugle et des chiens d'assistance en français. L'organisme est basé à Sainte-Madeleine (Québec).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chien_d'assistance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien_d%27assistance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sélection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éducateurs sélectionnent les sujets selon deux critères : physique et caractère.
 Pour ce faire ils se fondent sur la qualité du pedigree afin d'éviter au maximum des risques héréditaires telles que la dysplasie coxo-fémorale ou les tares oculaires.
 La connaissance des ascendants leur permet aussi de supposer l'existence ou non d'une réelle aptitude à la tâche qui les attend. Selon ce dernier critère il pourra être formé pour correspondre aux besoins d'une des trois catégories de chiens d'assistance explicitées ci-dessus. 
-Les races privilégiées sont le labrador retriever et golden retriever[6],[5],[9].
-Éducation
-En France, un chien d'assistance suit une éducation spécialisée pendant deux ans, d'abord en famille d'accueil, puis dans un centre spécialisé[1],[8].
-Typologie
-Il existe également des chiens d’éveil[1], qui sont remis à des enfants atteints de troubles autistiques ou polyhandicapés[5], ainsi que des chiens d’accompagnement social[1],[6],[7] destinés aux institutions comme les maisons de retraite ou les centres de rééducation fonctionnelle.
+Les races privilégiées sont le labrador retriever et golden retriever.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chien_d'assistance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien_d%27assistance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, un chien d'assistance suit une éducation spécialisée pendant deux ans, d'abord en famille d'accueil, puis dans un centre spécialisé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chien_d'assistance</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chien_d%27assistance</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe également des chiens d’éveil, qui sont remis à des enfants atteints de troubles autistiques ou polyhandicapés, ainsi que des chiens d’accompagnement social destinés aux institutions comme les maisons de retraite ou les centres de rééducation fonctionnelle.
 </t>
         </is>
       </c>
